--- a/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H2">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I2">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J2">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>114.020312369576</v>
+        <v>114.649151</v>
       </c>
       <c r="N2">
-        <v>114.020312369576</v>
+        <v>229.298302</v>
       </c>
       <c r="O2">
-        <v>0.4939331698016955</v>
+        <v>0.4831189074586796</v>
       </c>
       <c r="P2">
-        <v>0.4939331698016955</v>
+        <v>0.3867734764459096</v>
       </c>
       <c r="Q2">
-        <v>3433.910962736114</v>
+        <v>3657.310267207596</v>
       </c>
       <c r="R2">
-        <v>3433.910962736114</v>
+        <v>14629.24106883038</v>
       </c>
       <c r="S2">
-        <v>0.002538403898054598</v>
+        <v>0.00232589209175192</v>
       </c>
       <c r="T2">
-        <v>0.002538403898054598</v>
+        <v>0.001245733835989538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H3">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I3">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J3">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.76345267313536</v>
+        <v>1.83994</v>
       </c>
       <c r="N3">
-        <v>1.76345267313536</v>
+        <v>5.51982</v>
       </c>
       <c r="O3">
-        <v>0.007639233313216545</v>
+        <v>0.007753304711253579</v>
       </c>
       <c r="P3">
-        <v>0.007639233313216545</v>
+        <v>0.009310666289869257</v>
       </c>
       <c r="Q3">
-        <v>53.10930430463911</v>
+        <v>58.69412371877</v>
       </c>
       <c r="R3">
-        <v>53.10930430463911</v>
+        <v>352.16474231262</v>
       </c>
       <c r="S3">
-        <v>3.925927798734941E-05</v>
+        <v>3.732693925747455E-05</v>
       </c>
       <c r="T3">
-        <v>3.925927798734941E-05</v>
+        <v>2.998812674405138E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H4">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I4">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J4">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.9377783419172</v>
+        <v>17.47385333333333</v>
       </c>
       <c r="N4">
-        <v>16.9377783419172</v>
+        <v>52.42156</v>
       </c>
       <c r="O4">
-        <v>0.07337403636208595</v>
+        <v>0.07363289529717675</v>
       </c>
       <c r="P4">
-        <v>0.07337403636208595</v>
+        <v>0.08842311009314772</v>
       </c>
       <c r="Q4">
-        <v>510.1093088061331</v>
+        <v>557.4162795473267</v>
       </c>
       <c r="R4">
-        <v>510.1093088061331</v>
+        <v>3344.49767728396</v>
       </c>
       <c r="S4">
-        <v>0.0003770812557340413</v>
+        <v>0.0003544927888775463</v>
       </c>
       <c r="T4">
-        <v>0.0003770812557340413</v>
+        <v>0.0002847963131770409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H5">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I5">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J5">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.3209607218478</v>
+        <v>25.34600966666666</v>
       </c>
       <c r="N5">
-        <v>25.3209607218478</v>
+        <v>76.03802899999999</v>
       </c>
       <c r="O5">
-        <v>0.1096897748466765</v>
+        <v>0.1068052959118479</v>
       </c>
       <c r="P5">
-        <v>0.1096897748466765</v>
+        <v>0.1282586594052706</v>
       </c>
       <c r="Q5">
-        <v>762.5827609376427</v>
+        <v>808.5382279598647</v>
       </c>
       <c r="R5">
-        <v>762.5827609376427</v>
+        <v>4851.229367759189</v>
       </c>
       <c r="S5">
-        <v>0.0005637138161005096</v>
+        <v>0.0005141955516196339</v>
       </c>
       <c r="T5">
-        <v>0.0005637138161005096</v>
+        <v>0.000413100074100216</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H6">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I6">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J6">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.7517603430032</v>
+        <v>73.56844233333332</v>
       </c>
       <c r="N6">
-        <v>68.7517603430032</v>
+        <v>220.705327</v>
       </c>
       <c r="O6">
-        <v>0.2978309233673638</v>
+        <v>0.3100093212510301</v>
       </c>
       <c r="P6">
-        <v>0.2978309233673638</v>
+        <v>0.3722791047703496</v>
       </c>
       <c r="Q6">
-        <v>2070.573379802806</v>
+        <v>2346.834818586401</v>
       </c>
       <c r="R6">
-        <v>2070.573379802806</v>
+        <v>14081.00891151841</v>
       </c>
       <c r="S6">
-        <v>0.001530602160491553</v>
+        <v>0.001492486047503371</v>
       </c>
       <c r="T6">
-        <v>0.001530602160491553</v>
+        <v>0.001199049845676726</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H7">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I7">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J7">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.04731360318076</v>
+        <v>4.433024</v>
       </c>
       <c r="N7">
-        <v>4.04731360318076</v>
+        <v>8.866047999999999</v>
       </c>
       <c r="O7">
-        <v>0.01753286230896184</v>
+        <v>0.01868027537001216</v>
       </c>
       <c r="P7">
-        <v>0.01753286230896184</v>
+        <v>0.01495498299545325</v>
       </c>
       <c r="Q7">
-        <v>121.8915670617111</v>
+        <v>141.413556476992</v>
       </c>
       <c r="R7">
-        <v>121.8915670617111</v>
+        <v>565.654225907968</v>
       </c>
       <c r="S7">
-        <v>9.010426662981827E-05</v>
+        <v>8.993294214753027E-05</v>
       </c>
       <c r="T7">
-        <v>9.010426662981827E-05</v>
+        <v>4.816754371389705E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H8">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>114.020312369576</v>
+        <v>114.649151</v>
       </c>
       <c r="N8">
-        <v>114.020312369576</v>
+        <v>229.298302</v>
       </c>
       <c r="O8">
-        <v>0.4939331698016955</v>
+        <v>0.4831189074586796</v>
       </c>
       <c r="P8">
-        <v>0.4939331698016955</v>
+        <v>0.3867734764459096</v>
       </c>
       <c r="Q8">
-        <v>462.5775431419774</v>
+        <v>517.3675549726323</v>
       </c>
       <c r="R8">
-        <v>462.5775431419774</v>
+        <v>3104.205329835794</v>
       </c>
       <c r="S8">
-        <v>0.0003419449867530967</v>
+        <v>0.0003290235218568533</v>
       </c>
       <c r="T8">
-        <v>0.0003419449867530967</v>
+        <v>0.0002643345334895545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H9">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.76345267313536</v>
+        <v>1.83994</v>
       </c>
       <c r="N9">
-        <v>1.76345267313536</v>
+        <v>5.51982</v>
       </c>
       <c r="O9">
-        <v>0.007639233313216545</v>
+        <v>0.007753304711253579</v>
       </c>
       <c r="P9">
-        <v>0.007639233313216545</v>
+        <v>0.009310666289869257</v>
       </c>
       <c r="Q9">
-        <v>7.154283197734593</v>
+        <v>8.302942069726667</v>
       </c>
       <c r="R9">
-        <v>7.154283197734593</v>
+        <v>74.72647862754</v>
       </c>
       <c r="S9">
-        <v>5.288564716438041E-06</v>
+        <v>5.280314189202313E-06</v>
       </c>
       <c r="T9">
-        <v>5.288564716438041E-06</v>
+        <v>6.363235278760646E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H10">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J10">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.9377783419172</v>
+        <v>17.47385333333333</v>
       </c>
       <c r="N10">
-        <v>16.9377783419172</v>
+        <v>52.42156</v>
       </c>
       <c r="O10">
-        <v>0.07337403636208595</v>
+        <v>0.07363289529717675</v>
       </c>
       <c r="P10">
-        <v>0.07337403636208595</v>
+        <v>0.08842311009314772</v>
       </c>
       <c r="Q10">
-        <v>68.71614126342345</v>
+        <v>78.85278430903556</v>
       </c>
       <c r="R10">
-        <v>68.71614126342345</v>
+        <v>709.67505878132</v>
       </c>
       <c r="S10">
-        <v>5.079611053845162E-05</v>
+        <v>5.014698071461034E-05</v>
       </c>
       <c r="T10">
-        <v>5.079611053845162E-05</v>
+        <v>6.043144884428622E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H11">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J11">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.3209607218478</v>
+        <v>25.34600966666666</v>
       </c>
       <c r="N11">
-        <v>25.3209607218478</v>
+        <v>76.03802899999999</v>
       </c>
       <c r="O11">
-        <v>0.1096897748466765</v>
+        <v>0.1068052959118479</v>
       </c>
       <c r="P11">
-        <v>0.1096897748466765</v>
+        <v>0.1282586594052706</v>
       </c>
       <c r="Q11">
-        <v>102.7265015968525</v>
+        <v>114.3768003092847</v>
       </c>
       <c r="R11">
-        <v>102.7265015968525</v>
+        <v>1029.391202783563</v>
       </c>
       <c r="S11">
-        <v>7.593713259215944E-05</v>
+        <v>7.273872761207375E-05</v>
       </c>
       <c r="T11">
-        <v>7.593713259215944E-05</v>
+        <v>8.76564577577213E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H12">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J12">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>68.7517603430032</v>
+        <v>73.56844233333332</v>
       </c>
       <c r="N12">
-        <v>68.7517603430032</v>
+        <v>220.705327</v>
       </c>
       <c r="O12">
-        <v>0.2978309233673638</v>
+        <v>0.3100093212510301</v>
       </c>
       <c r="P12">
-        <v>0.2978309233673638</v>
+        <v>0.3722791047703496</v>
       </c>
       <c r="Q12">
-        <v>278.9241646968022</v>
+        <v>331.9861054456632</v>
       </c>
       <c r="R12">
-        <v>278.9241646968022</v>
+        <v>2987.874949010969</v>
       </c>
       <c r="S12">
-        <v>0.0002061853654946949</v>
+        <v>0.0002111288900345729</v>
       </c>
       <c r="T12">
-        <v>0.0002061853654946949</v>
+        <v>0.0002544285724854804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H13">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J13">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.04731360318076</v>
+        <v>4.433024</v>
       </c>
       <c r="N13">
-        <v>4.04731360318076</v>
+        <v>8.866047999999999</v>
       </c>
       <c r="O13">
-        <v>0.01753286230896184</v>
+        <v>0.01868027537001216</v>
       </c>
       <c r="P13">
-        <v>0.01753286230896184</v>
+        <v>0.01495498299545325</v>
       </c>
       <c r="Q13">
-        <v>16.41984962132079</v>
+        <v>20.00453355310933</v>
       </c>
       <c r="R13">
-        <v>16.41984962132079</v>
+        <v>120.027201318656</v>
       </c>
       <c r="S13">
-        <v>1.21378249863009E-05</v>
+        <v>1.272202328786503E-05</v>
       </c>
       <c r="T13">
-        <v>1.21378249863009E-05</v>
+        <v>1.022075890459929E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H14">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I14">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J14">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>114.020312369576</v>
+        <v>114.649151</v>
       </c>
       <c r="N14">
-        <v>114.020312369576</v>
+        <v>229.298302</v>
       </c>
       <c r="O14">
-        <v>0.4939331698016955</v>
+        <v>0.4831189074586796</v>
       </c>
       <c r="P14">
-        <v>0.4939331698016955</v>
+        <v>0.3867734764459096</v>
       </c>
       <c r="Q14">
-        <v>236653.4991997123</v>
+        <v>308828.3878033177</v>
       </c>
       <c r="R14">
-        <v>236653.4991997123</v>
+        <v>1852970.326819906</v>
       </c>
       <c r="S14">
-        <v>0.1749381889558836</v>
+        <v>0.1964015772303246</v>
       </c>
       <c r="T14">
-        <v>0.1749381889558836</v>
+        <v>0.1577872578860101</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H15">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I15">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J15">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.76345267313536</v>
+        <v>1.83994</v>
       </c>
       <c r="N15">
-        <v>1.76345267313536</v>
+        <v>5.51982</v>
       </c>
       <c r="O15">
-        <v>0.007639233313216545</v>
+        <v>0.007753304711253579</v>
       </c>
       <c r="P15">
-        <v>0.007639233313216545</v>
+        <v>0.009310666289869257</v>
       </c>
       <c r="Q15">
-        <v>3660.113159643691</v>
+        <v>4956.213795729167</v>
       </c>
       <c r="R15">
-        <v>3660.113159643691</v>
+        <v>44605.9241615625</v>
       </c>
       <c r="S15">
-        <v>0.002705616311133938</v>
+        <v>0.003151938892326935</v>
       </c>
       <c r="T15">
-        <v>0.002705616311133938</v>
+        <v>0.003798358968329194</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H16">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I16">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J16">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.9377783419172</v>
+        <v>17.47385333333333</v>
       </c>
       <c r="N16">
-        <v>16.9377783419172</v>
+        <v>52.42156</v>
       </c>
       <c r="O16">
-        <v>0.07337403636208595</v>
+        <v>0.07363289529717675</v>
       </c>
       <c r="P16">
-        <v>0.07337403636208595</v>
+        <v>0.08842311009314772</v>
       </c>
       <c r="Q16">
-        <v>35155.00378819662</v>
+        <v>47069.00929118056</v>
       </c>
       <c r="R16">
-        <v>35155.00378819662</v>
+        <v>423621.083620625</v>
       </c>
       <c r="S16">
-        <v>0.0259871614670459</v>
+        <v>0.02993386627832972</v>
       </c>
       <c r="T16">
-        <v>0.0259871614670459</v>
+        <v>0.03607289776837052</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H17">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I17">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J17">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.3209607218478</v>
+        <v>25.34600966666666</v>
       </c>
       <c r="N17">
-        <v>25.3209607218478</v>
+        <v>76.03802899999999</v>
       </c>
       <c r="O17">
-        <v>0.1096897748466765</v>
+        <v>0.1068052959118479</v>
       </c>
       <c r="P17">
-        <v>0.1096897748466765</v>
+        <v>0.1282586594052706</v>
       </c>
       <c r="Q17">
-        <v>52554.61797456606</v>
+        <v>68274.09740351215</v>
       </c>
       <c r="R17">
-        <v>52554.61797456606</v>
+        <v>614466.8766316093</v>
       </c>
       <c r="S17">
-        <v>0.03884924465866545</v>
+        <v>0.0434193906505979</v>
       </c>
       <c r="T17">
-        <v>0.03884924465866545</v>
+        <v>0.05232412096521723</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H18">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I18">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J18">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>68.7517603430032</v>
+        <v>73.56844233333332</v>
       </c>
       <c r="N18">
-        <v>68.7517603430032</v>
+        <v>220.705327</v>
       </c>
       <c r="O18">
-        <v>0.2978309233673638</v>
+        <v>0.3100093212510301</v>
       </c>
       <c r="P18">
-        <v>0.2978309233673638</v>
+        <v>0.3722791047703496</v>
       </c>
       <c r="Q18">
-        <v>142696.8960458061</v>
+        <v>198170.0103388003</v>
       </c>
       <c r="R18">
-        <v>142696.8960458061</v>
+        <v>1783530.093049203</v>
       </c>
       <c r="S18">
-        <v>0.1054839106469871</v>
+        <v>0.1260276066819269</v>
       </c>
       <c r="T18">
-        <v>0.1054839106469871</v>
+        <v>0.1518741658547701</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H19">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I19">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J19">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.04731360318076</v>
+        <v>4.433024</v>
       </c>
       <c r="N19">
-        <v>4.04731360318076</v>
+        <v>8.866047999999999</v>
       </c>
       <c r="O19">
-        <v>0.01753286230896184</v>
+        <v>0.01868027537001216</v>
       </c>
       <c r="P19">
-        <v>0.01753286230896184</v>
+        <v>0.01495498299545325</v>
       </c>
       <c r="Q19">
-        <v>8400.353469009573</v>
+        <v>11941.15824733333</v>
       </c>
       <c r="R19">
-        <v>8400.353469009573</v>
+        <v>71646.949484</v>
       </c>
       <c r="S19">
-        <v>0.006209680513608881</v>
+        <v>0.007594063260877374</v>
       </c>
       <c r="T19">
-        <v>0.006209680513608881</v>
+        <v>0.006101002013550644</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H20">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I20">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J20">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>114.020312369576</v>
+        <v>114.649151</v>
       </c>
       <c r="N20">
-        <v>114.020312369576</v>
+        <v>229.298302</v>
       </c>
       <c r="O20">
-        <v>0.4939331698016955</v>
+        <v>0.4831189074586796</v>
       </c>
       <c r="P20">
-        <v>0.4939331698016955</v>
+        <v>0.3867734764459096</v>
       </c>
       <c r="Q20">
-        <v>421085.3086546586</v>
+        <v>438701.4214899241</v>
       </c>
       <c r="R20">
-        <v>421085.3086546586</v>
+        <v>2632208.528939545</v>
       </c>
       <c r="S20">
-        <v>0.3112732393185959</v>
+        <v>0.2789952430431362</v>
       </c>
       <c r="T20">
-        <v>0.3112732393185959</v>
+        <v>0.2241422649645624</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H21">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I21">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J21">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.76345267313536</v>
+        <v>1.83994</v>
       </c>
       <c r="N21">
-        <v>1.76345267313536</v>
+        <v>5.51982</v>
       </c>
       <c r="O21">
-        <v>0.007639233313216545</v>
+        <v>0.007753304711253579</v>
       </c>
       <c r="P21">
-        <v>0.007639233313216545</v>
+        <v>0.009310666289869257</v>
       </c>
       <c r="Q21">
-        <v>6512.559014556987</v>
+        <v>7040.473360820361</v>
       </c>
       <c r="R21">
-        <v>6512.559014556987</v>
+        <v>63364.26024738324</v>
       </c>
       <c r="S21">
-        <v>0.00481419156415456</v>
+        <v>0.004477438367465869</v>
       </c>
       <c r="T21">
-        <v>0.00481419156415456</v>
+        <v>0.005395700474906659</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H22">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I22">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J22">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.9377783419172</v>
+        <v>17.47385333333333</v>
       </c>
       <c r="N22">
-        <v>16.9377783419172</v>
+        <v>52.42156</v>
       </c>
       <c r="O22">
-        <v>0.07337403636208595</v>
+        <v>0.07363289529717675</v>
       </c>
       <c r="P22">
-        <v>0.07337403636208595</v>
+        <v>0.08842311009314772</v>
       </c>
       <c r="Q22">
-        <v>62552.44765434873</v>
+        <v>66863.15798570355</v>
       </c>
       <c r="R22">
-        <v>62552.44765434873</v>
+        <v>601768.421871332</v>
       </c>
       <c r="S22">
-        <v>0.04623980606420196</v>
+        <v>0.04252209384117853</v>
       </c>
       <c r="T22">
-        <v>0.04623980606420196</v>
+        <v>0.05124280070497732</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H23">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I23">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J23">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.3209607218478</v>
+        <v>25.34600966666666</v>
       </c>
       <c r="N23">
-        <v>25.3209607218478</v>
+        <v>76.03802899999999</v>
       </c>
       <c r="O23">
-        <v>0.1096897748466765</v>
+        <v>0.1068052959118479</v>
       </c>
       <c r="P23">
-        <v>0.1096897748466765</v>
+        <v>0.1282586594052706</v>
       </c>
       <c r="Q23">
-        <v>93512.15006701542</v>
+        <v>96985.72011112428</v>
       </c>
       <c r="R23">
-        <v>93512.15006701542</v>
+        <v>872871.4810001184</v>
       </c>
       <c r="S23">
-        <v>0.06912573122060292</v>
+        <v>0.06167874829814782</v>
       </c>
       <c r="T23">
-        <v>0.06912573122060292</v>
+        <v>0.07432822613532078</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H24">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I24">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J24">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>68.7517603430032</v>
+        <v>73.56844233333332</v>
       </c>
       <c r="N24">
-        <v>68.7517603430032</v>
+        <v>220.705327</v>
       </c>
       <c r="O24">
-        <v>0.2978309233673638</v>
+        <v>0.3100093212510301</v>
       </c>
       <c r="P24">
-        <v>0.2978309233673638</v>
+        <v>0.3722791047703496</v>
       </c>
       <c r="Q24">
-        <v>253905.2526952156</v>
+        <v>281507.363525377</v>
       </c>
       <c r="R24">
-        <v>253905.2526952156</v>
+        <v>2533566.271728393</v>
       </c>
       <c r="S24">
-        <v>0.187690971074139</v>
+        <v>0.1790265803982558</v>
       </c>
       <c r="T24">
-        <v>0.187690971074139</v>
+        <v>0.2157425129276551</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H25">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I25">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J25">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.04731360318076</v>
+        <v>4.433024</v>
       </c>
       <c r="N25">
-        <v>4.04731360318076</v>
+        <v>8.866047999999999</v>
       </c>
       <c r="O25">
-        <v>0.01753286230896184</v>
+        <v>0.01868027537001216</v>
       </c>
       <c r="P25">
-        <v>0.01753286230896184</v>
+        <v>0.01495498299545325</v>
       </c>
       <c r="Q25">
-        <v>14947.02358202201</v>
+        <v>16962.82888565785</v>
       </c>
       <c r="R25">
-        <v>14947.02358202201</v>
+        <v>101776.9733139471</v>
       </c>
       <c r="S25">
-        <v>0.0110490875671066</v>
+        <v>0.01078762989091873</v>
       </c>
       <c r="T25">
-        <v>0.0110490875671066</v>
+        <v>0.008666684675251227</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H26">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I26">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J26">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>114.020312369576</v>
+        <v>114.649151</v>
       </c>
       <c r="N26">
-        <v>114.020312369576</v>
+        <v>229.298302</v>
       </c>
       <c r="O26">
-        <v>0.4939331698016955</v>
+        <v>0.4831189074586796</v>
       </c>
       <c r="P26">
-        <v>0.4939331698016955</v>
+        <v>0.3867734764459096</v>
       </c>
       <c r="Q26">
-        <v>3160.258936869428</v>
+        <v>3640.115741678179</v>
       </c>
       <c r="R26">
-        <v>3160.258936869428</v>
+        <v>21840.69445006907</v>
       </c>
       <c r="S26">
-        <v>0.00233611578496472</v>
+        <v>0.002314957112756869</v>
       </c>
       <c r="T26">
-        <v>0.00233611578496472</v>
+        <v>0.001859815690366173</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H27">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I27">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J27">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.76345267313536</v>
+        <v>1.83994</v>
       </c>
       <c r="N27">
-        <v>1.76345267313536</v>
+        <v>5.51982</v>
       </c>
       <c r="O27">
-        <v>0.007639233313216545</v>
+        <v>0.007753304711253579</v>
       </c>
       <c r="P27">
-        <v>0.007639233313216545</v>
+        <v>0.009310666289869257</v>
       </c>
       <c r="Q27">
-        <v>48.87696721930168</v>
+        <v>58.41817841061334</v>
       </c>
       <c r="R27">
-        <v>48.87696721930168</v>
+        <v>525.76360569552</v>
       </c>
       <c r="S27">
-        <v>3.61306642661767E-05</v>
+        <v>3.715144990516218E-05</v>
       </c>
       <c r="T27">
-        <v>3.61306642661767E-05</v>
+        <v>4.477071026891865E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H28">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I28">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J28">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.9377783419172</v>
+        <v>17.47385333333333</v>
       </c>
       <c r="N28">
-        <v>16.9377783419172</v>
+        <v>52.42156</v>
       </c>
       <c r="O28">
-        <v>0.07337403636208595</v>
+        <v>0.07363289529717675</v>
       </c>
       <c r="P28">
-        <v>0.07337403636208595</v>
+        <v>0.08842311009314772</v>
       </c>
       <c r="Q28">
-        <v>469.4581541072857</v>
+        <v>554.7956354813512</v>
       </c>
       <c r="R28">
-        <v>469.4581541072857</v>
+        <v>4993.16071933216</v>
       </c>
       <c r="S28">
-        <v>0.0003470312484194211</v>
+        <v>0.0003528261719205433</v>
       </c>
       <c r="T28">
-        <v>0.0003470312484194211</v>
+        <v>0.0004251860521909655</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H29">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I29">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J29">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.3209607218478</v>
+        <v>25.34600966666666</v>
       </c>
       <c r="N29">
-        <v>25.3209607218478</v>
+        <v>76.03802899999999</v>
       </c>
       <c r="O29">
-        <v>0.1096897748466765</v>
+        <v>0.1068052959118479</v>
       </c>
       <c r="P29">
-        <v>0.1096897748466765</v>
+        <v>0.1282586594052706</v>
       </c>
       <c r="Q29">
-        <v>701.8117276504778</v>
+        <v>804.7369559357714</v>
       </c>
       <c r="R29">
-        <v>701.8117276504778</v>
+        <v>7242.632603421944</v>
       </c>
       <c r="S29">
-        <v>0.0005187908610620857</v>
+        <v>0.0005117781060398289</v>
       </c>
       <c r="T29">
-        <v>0.0005187908610620857</v>
+        <v>0.0006167368801480183</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H30">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I30">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J30">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>68.7517603430032</v>
+        <v>73.56844233333332</v>
       </c>
       <c r="N30">
-        <v>68.7517603430032</v>
+        <v>220.705327</v>
       </c>
       <c r="O30">
-        <v>0.2978309233673638</v>
+        <v>0.3100093212510301</v>
       </c>
       <c r="P30">
-        <v>0.2978309233673638</v>
+        <v>0.3722791047703496</v>
       </c>
       <c r="Q30">
-        <v>1905.567179514726</v>
+        <v>2335.801379186052</v>
       </c>
       <c r="R30">
-        <v>1905.567179514726</v>
+        <v>21022.21241267447</v>
       </c>
       <c r="S30">
-        <v>0.001408626842389333</v>
+        <v>0.001485469254403755</v>
       </c>
       <c r="T30">
-        <v>0.001408626842389333</v>
+        <v>0.001790118925965692</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H31">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I31">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J31">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.04731360318076</v>
+        <v>4.433024</v>
       </c>
       <c r="N31">
-        <v>4.04731360318076</v>
+        <v>8.866047999999999</v>
       </c>
       <c r="O31">
-        <v>0.01753286230896184</v>
+        <v>0.01868027537001216</v>
       </c>
       <c r="P31">
-        <v>0.01753286230896184</v>
+        <v>0.01495498299545325</v>
       </c>
       <c r="Q31">
-        <v>112.1778981214062</v>
+        <v>140.7487129637547</v>
       </c>
       <c r="R31">
-        <v>112.1778981214062</v>
+        <v>844.4922777825279</v>
       </c>
       <c r="S31">
-        <v>8.292376155264667E-05</v>
+        <v>8.951013025662882E-05</v>
       </c>
       <c r="T31">
-        <v>8.292376155264667E-05</v>
+        <v>7.191163230654726E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H32">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I32">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J32">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>114.020312369576</v>
+        <v>114.649151</v>
       </c>
       <c r="N32">
-        <v>114.020312369576</v>
+        <v>229.298302</v>
       </c>
       <c r="O32">
-        <v>0.4939331698016955</v>
+        <v>0.4831189074586796</v>
       </c>
       <c r="P32">
-        <v>0.4939331698016955</v>
+        <v>0.3867734764459096</v>
       </c>
       <c r="Q32">
-        <v>3389.097248100537</v>
+        <v>4327.673770256157</v>
       </c>
       <c r="R32">
-        <v>3389.097248100537</v>
+        <v>17310.69508102463</v>
       </c>
       <c r="S32">
-        <v>0.002505276857443558</v>
+        <v>0.002752214458853201</v>
       </c>
       <c r="T32">
-        <v>0.002505276857443558</v>
+        <v>0.001474069535491914</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H33">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I33">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J33">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.76345267313536</v>
+        <v>1.83994</v>
       </c>
       <c r="N33">
-        <v>1.76345267313536</v>
+        <v>5.51982</v>
       </c>
       <c r="O33">
-        <v>0.007639233313216545</v>
+        <v>0.007753304711253579</v>
       </c>
       <c r="P33">
-        <v>0.007639233313216545</v>
+        <v>0.009310666289869257</v>
       </c>
       <c r="Q33">
-        <v>52.41620968645316</v>
+        <v>69.45241205358001</v>
       </c>
       <c r="R33">
-        <v>52.41620968645316</v>
+        <v>416.71447232148</v>
       </c>
       <c r="S33">
-        <v>3.87469309580828E-05</v>
+        <v>4.416874810893593E-05</v>
       </c>
       <c r="T33">
-        <v>3.87469309580828E-05</v>
+        <v>3.548477434167382E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H34">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I34">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J34">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>16.9377783419172</v>
+        <v>17.47385333333333</v>
       </c>
       <c r="N34">
-        <v>16.9377783419172</v>
+        <v>52.42156</v>
       </c>
       <c r="O34">
-        <v>0.07337403636208595</v>
+        <v>0.07363289529717675</v>
       </c>
       <c r="P34">
-        <v>0.07337403636208595</v>
+        <v>0.08842311009314772</v>
       </c>
       <c r="Q34">
-        <v>503.4522075458328</v>
+        <v>659.58741147564</v>
       </c>
       <c r="R34">
-        <v>503.4522075458328</v>
+        <v>3957.52446885384</v>
       </c>
       <c r="S34">
-        <v>0.0003721602161461582</v>
+        <v>0.0004194692361557933</v>
       </c>
       <c r="T34">
-        <v>0.0003721602161461582</v>
+        <v>0.0003369978055875943</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H35">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I35">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J35">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.3209607218478</v>
+        <v>25.34600966666666</v>
       </c>
       <c r="N35">
-        <v>25.3209607218478</v>
+        <v>76.03802899999999</v>
       </c>
       <c r="O35">
-        <v>0.1096897748466765</v>
+        <v>0.1068052959118479</v>
       </c>
       <c r="P35">
-        <v>0.1096897748466765</v>
+        <v>0.1282586594052706</v>
       </c>
       <c r="Q35">
-        <v>752.6307946212418</v>
+        <v>956.7385389107009</v>
       </c>
       <c r="R35">
-        <v>752.6307946212418</v>
+        <v>5740.431233464205</v>
       </c>
       <c r="S35">
-        <v>0.0005563571576533343</v>
+        <v>0.0006084445778306112</v>
       </c>
       <c r="T35">
-        <v>0.0005563571576533343</v>
+        <v>0.0004888188927266922</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H36">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I36">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J36">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>68.7517603430032</v>
+        <v>73.56844233333332</v>
       </c>
       <c r="N36">
-        <v>68.7517603430032</v>
+        <v>220.705327</v>
       </c>
       <c r="O36">
-        <v>0.2978309233673638</v>
+        <v>0.3100093212510301</v>
       </c>
       <c r="P36">
-        <v>0.2978309233673638</v>
+        <v>0.3722791047703496</v>
       </c>
       <c r="Q36">
-        <v>2043.551687749216</v>
+        <v>2776.995864579663</v>
       </c>
       <c r="R36">
-        <v>2043.551687749216</v>
+        <v>16661.97518747798</v>
       </c>
       <c r="S36">
-        <v>0.001510627277862036</v>
+        <v>0.001766049978905713</v>
       </c>
       <c r="T36">
-        <v>0.001510627277862036</v>
+        <v>0.001418828643796415</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H37">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I37">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J37">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.04731360318076</v>
+        <v>4.433024</v>
       </c>
       <c r="N37">
-        <v>4.04731360318076</v>
+        <v>8.866047999999999</v>
       </c>
       <c r="O37">
-        <v>0.01753286230896184</v>
+        <v>0.01868027537001216</v>
       </c>
       <c r="P37">
-        <v>0.01753286230896184</v>
+        <v>0.01495498299545325</v>
       </c>
       <c r="Q37">
-        <v>120.3008403474592</v>
+        <v>167.333831261568</v>
       </c>
       <c r="R37">
-        <v>120.3008403474592</v>
+        <v>669.3353250462719</v>
       </c>
       <c r="S37">
-        <v>8.892837507758675E-05</v>
+        <v>0.0001064171225240321</v>
       </c>
       <c r="T37">
-        <v>8.892837507758675E-05</v>
+        <v>5.699637172633319E-05</v>
       </c>
     </row>
   </sheetData>
